--- a/Docs/Documentation.xlsx
+++ b/Docs/Documentation.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
   <si>
     <t>RTC DS1302</t>
   </si>
@@ -166,9 +166,6 @@
     <t>D12</t>
   </si>
   <si>
-    <t>Relay com</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
@@ -425,6 +422,15 @@
   </si>
   <si>
     <t>TOTAL PRICE:</t>
+  </si>
+  <si>
+    <t>Relay in</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -1168,68 +1174,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3585,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3599,51 +3605,51 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3672,7 +3678,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="46">
         <v>1</v>
@@ -3681,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="46">
         <v>2</v>
@@ -3703,7 +3709,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O12" s="46">
         <v>0</v>
@@ -3712,12 +3718,12 @@
         <v>5</v>
       </c>
       <c r="Q12" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="49">
         <v>1</v>
@@ -3726,7 +3732,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="49">
         <v>3</v>
@@ -3739,7 +3745,7 @@
         <v>30</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="49" t="s">
@@ -3752,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" s="49">
         <v>1</v>
@@ -3771,7 +3777,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="46">
         <v>1</v>
@@ -3780,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="46">
         <v>2</v>
@@ -3802,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O15" s="46">
         <v>0</v>
@@ -3811,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="Q15" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3828,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="49">
         <v>3</v>
@@ -3849,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M16" s="49">
         <v>0</v>
@@ -3874,7 +3880,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="46">
         <v>1</v>
@@ -3883,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="46">
         <v>2</v>
@@ -3905,7 +3911,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O18" s="46">
         <v>0</v>
@@ -3914,12 +3920,12 @@
         <v>5</v>
       </c>
       <c r="Q18" s="69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="49">
         <v>1</v>
@@ -3928,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="49">
         <v>3</v>
@@ -3938,26 +3944,26 @@
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="49" t="s">
-        <v>98</v>
-      </c>
       <c r="J19" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="49"/>
       <c r="L19" s="49" t="s">
         <v>32</v>
       </c>
       <c r="M19" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="49" t="s">
+      <c r="O19" s="49" t="s">
         <v>100</v>
-      </c>
-      <c r="O19" s="49" t="s">
-        <v>101</v>
       </c>
       <c r="P19" s="51"/>
       <c r="Q19" s="70"/>
@@ -3965,28 +3971,28 @@
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="I21" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="J21" s="46" t="s">
         <v>107</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>108</v>
       </c>
       <c r="K21" s="46" t="s">
         <v>32</v>
@@ -3998,7 +4004,7 @@
       <c r="N21" s="46"/>
       <c r="O21" s="46"/>
       <c r="P21" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q21" s="69"/>
     </row>
@@ -4027,33 +4033,33 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="52" t="s">
+      <c r="I24" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="52" t="s">
         <v>111</v>
-      </c>
-      <c r="I24" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="52" t="s">
-        <v>112</v>
       </c>
       <c r="L24" s="52" t="s">
         <v>32</v>
@@ -4064,43 +4070,43 @@
       </c>
       <c r="O24" s="52"/>
       <c r="P24" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="H25" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="52" t="s">
-        <v>109</v>
-      </c>
       <c r="I25" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K25" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L25" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M25" s="52"/>
       <c r="N25" s="52">
@@ -4108,7 +4114,7 @@
       </c>
       <c r="O25" s="52"/>
       <c r="P25" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -4130,6 +4136,53 @@
       <c r="N26" s="52"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O28" t="s">
+        <v>134</v>
+      </c>
+      <c r="P28" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4156,7 +4209,7 @@
   <dimension ref="B1:Z33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,14 +4226,14 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="E2" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="89"/>
+      <c r="B2" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="E2" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="60" t="s">
@@ -4195,44 +4248,44 @@
       <c r="F3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="73" t="s">
+      <c r="P3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="73" t="s">
+      <c r="Q3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="73" t="s">
+      <c r="R3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="73" t="s">
+      <c r="S3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="73" t="s">
+      <c r="T3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="75" t="s">
-        <v>49</v>
+      <c r="U3" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="87" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,19 +4301,19 @@
       <c r="F4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -4275,23 +4328,23 @@
       <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>33</v>
@@ -4302,26 +4355,26 @@
       <c r="F6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>11</v>
@@ -4329,26 +4382,26 @@
       <c r="F7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>33</v>
@@ -4356,19 +4409,19 @@
       <c r="F8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="14" t="s">
@@ -4396,13 +4449,13 @@
         <v>45</v>
       </c>
       <c r="N9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="P9" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="Q9" s="30" t="s">
         <v>39</v>
@@ -4411,32 +4464,32 @@
         <v>38</v>
       </c>
       <c r="S9" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="30" t="s">
         <v>53</v>
-      </c>
-      <c r="T9" s="30" t="s">
-        <v>54</v>
       </c>
       <c r="U9" s="30" t="s">
         <v>33</v>
       </c>
       <c r="V9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="X9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="W9" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="X9" s="30" t="s">
+      <c r="Y9" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="32" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="85"/>
+      <c r="B10" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="74"/>
       <c r="E10" s="14" t="s">
         <v>37</v>
       </c>
@@ -4475,22 +4528,22 @@
       <c r="F11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
+      <c r="H11" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="36" t="s">
@@ -4505,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>39</v>
@@ -4513,20 +4566,20 @@
       <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
       <c r="X12" s="36" t="s">
@@ -4547,22 +4600,22 @@
         <v>40</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
+        <v>86</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
       <c r="X13" s="36" t="s">
@@ -4579,20 +4632,20 @@
       <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
@@ -4605,24 +4658,24 @@
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="87"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
+      <c r="E15" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="36" t="s">
         <v>21</v>
       </c>
@@ -4649,20 +4702,20 @@
       <c r="F16" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="36" t="s">
         <v>19</v>
       </c>
@@ -4681,7 +4734,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>31</v>
@@ -4689,20 +4742,20 @@
       <c r="F17" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
       <c r="V17" s="36" t="s">
         <v>8</v>
       </c>
@@ -4795,72 +4848,72 @@
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L20" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="M20" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="78" t="s">
+      <c r="L20" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="Q20" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="T20" s="77" t="s">
+      <c r="T20" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="Y20" s="71" t="s">
+      <c r="Y20" s="90" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="Y21" s="72"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="Y21" s="88"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="Y22" s="72"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="Y22" s="88"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="Y23" s="72"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="Y23" s="88"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="Y24" s="72"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="Y24" s="88"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="Y25" s="72"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="Y25" s="88"/>
     </row>
     <row r="33" spans="23:26" x14ac:dyDescent="0.25">
       <c r="W33" s="28"/>
@@ -4870,13 +4923,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H11:U17"/>
-    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="Y20:Y25"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:S8"/>
+    <mergeCell ref="T3:T8"/>
+    <mergeCell ref="V3:V8"/>
+    <mergeCell ref="W3:W8"/>
+    <mergeCell ref="U3:U8"/>
     <mergeCell ref="M20:M25"/>
     <mergeCell ref="T20:T25"/>
     <mergeCell ref="O20:O25"/>
@@ -4886,15 +4941,13 @@
     <mergeCell ref="Q20:Q25"/>
     <mergeCell ref="L20:L25"/>
     <mergeCell ref="N3:N8"/>
-    <mergeCell ref="Y20:Y25"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:S8"/>
-    <mergeCell ref="T3:T8"/>
-    <mergeCell ref="V3:V8"/>
-    <mergeCell ref="W3:W8"/>
-    <mergeCell ref="U3:U8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H11:U17"/>
+    <mergeCell ref="K3:K8"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.15748031496062992" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -4938,7 +4991,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -4946,16 +4999,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,13 +5016,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="23">
         <v>115.75</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4977,13 +5030,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="23">
         <v>84</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,13 +5044,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="23">
         <v>17.5</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,13 +5058,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="23">
         <v>17.25</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,13 +5072,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="23">
         <v>6.25</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,13 +5086,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="23">
         <v>100.75</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5047,13 +5100,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="23">
         <v>23.25</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5061,19 +5114,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="23">
         <v>95</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="26">
         <f>SUM(C3:C10)</f>

--- a/Docs/Documentation.xlsx
+++ b/Docs/Documentation.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
-    <sheet name="Pinout" sheetId="2" r:id="rId2"/>
+    <sheet name="Pinouts" sheetId="2" r:id="rId2"/>
     <sheet name="CircuitDiagram" sheetId="6" r:id="rId3"/>
     <sheet name="Costs" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">CircuitDiagram!$B$5:$W$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Pinout!$B$1:$V$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Pinouts!$B$1:$V$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="134">
   <si>
     <t>RTC DS1302</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Прибор производит контроль наличия осадков (внешний датчик) за два часа, за час и непосредственно перед включением полива. Если датчик покажет что в один из моментов был дождь, ближайший полив будет пропущен.</t>
   </si>
   <si>
-    <t>RTC power +5V</t>
-  </si>
-  <si>
     <t>Режим ожидания. Индикация текущей даты, информирование о пропуске ближайшего полива, из-за дождя.</t>
   </si>
   <si>
@@ -301,12 +298,6 @@
     <t>Relay GND</t>
   </si>
   <si>
-    <t>Relay power +5V</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -388,9 +379,6 @@
     <t>Display with buttons:</t>
   </si>
   <si>
-    <t>Water sensor pwr</t>
-  </si>
-  <si>
     <t>ARDUINO UNO R3 [CH340/ATmega328P]</t>
   </si>
   <si>
@@ -424,13 +412,22 @@
     <t>TOTAL PRICE:</t>
   </si>
   <si>
-    <t>Relay in</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>RTC PWR</t>
+  </si>
+  <si>
+    <t>Relay PWR</t>
+  </si>
+  <si>
+    <t>Water sensor PWR</t>
+  </si>
+  <si>
+    <t>Relay IN</t>
   </si>
 </sst>
 </file>
@@ -976,7 +973,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1174,6 +1171,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1198,47 +1228,20 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3593,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
@@ -3678,7 +3681,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="46">
         <v>1</v>
@@ -3687,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G12" s="46">
         <v>2</v>
@@ -3709,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O12" s="46">
         <v>0</v>
@@ -3723,7 +3726,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B13" s="49">
         <v>1</v>
@@ -3732,7 +3735,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" s="49">
         <v>3</v>
@@ -3745,7 +3748,7 @@
         <v>30</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="49" t="s">
@@ -3758,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O13" s="49">
         <v>1</v>
@@ -3777,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="46">
         <v>1</v>
@@ -3786,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G15" s="46">
         <v>2</v>
@@ -3808,7 +3811,7 @@
         <v>9</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O15" s="46">
         <v>0</v>
@@ -3834,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" s="49">
         <v>3</v>
@@ -3855,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="49">
         <v>0</v>
@@ -3880,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D18" s="46">
         <v>1</v>
@@ -3889,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G18" s="46">
         <v>2</v>
@@ -3911,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O18" s="46">
         <v>0</v>
@@ -3920,12 +3923,12 @@
         <v>5</v>
       </c>
       <c r="Q18" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B19" s="49">
         <v>1</v>
@@ -3934,7 +3937,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E19" s="49">
         <v>3</v>
@@ -3944,26 +3947,26 @@
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J19" s="49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K19" s="49"/>
       <c r="L19" s="49" t="s">
         <v>32</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N19" s="49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O19" s="49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P19" s="51"/>
       <c r="Q19" s="70"/>
@@ -3971,28 +3974,28 @@
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="46" t="s">
         <v>104</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>107</v>
       </c>
       <c r="K21" s="46" t="s">
         <v>32</v>
@@ -4004,7 +4007,7 @@
       <c r="N21" s="46"/>
       <c r="O21" s="46"/>
       <c r="P21" s="47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="69"/>
     </row>
@@ -4033,33 +4036,33 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I24" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K24" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L24" s="52" t="s">
         <v>32</v>
@@ -4070,43 +4073,43 @@
       </c>
       <c r="O24" s="52"/>
       <c r="P24" s="52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="52" t="s">
         <v>107</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" s="52" t="s">
-        <v>110</v>
       </c>
       <c r="M25" s="52"/>
       <c r="N25" s="52">
@@ -4114,7 +4117,7 @@
       </c>
       <c r="O25" s="52"/>
       <c r="P25" s="52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -4142,43 +4145,43 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
         <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
         <v>108</v>
       </c>
-      <c r="J28" t="s">
-        <v>103</v>
-      </c>
-      <c r="K28" t="s">
-        <v>111</v>
-      </c>
       <c r="L28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" t="s">
         <v>107</v>
       </c>
-      <c r="M28" t="s">
-        <v>99</v>
-      </c>
-      <c r="N28" t="s">
-        <v>110</v>
-      </c>
       <c r="O28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P28" t="s">
         <v>17</v>
@@ -4208,8 +4211,8 @@
   </sheetPr>
   <dimension ref="B1:Z33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,14 +4229,14 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="E2" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="E2" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="60" t="s">
@@ -4248,43 +4251,40 @@
       <c r="F3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" s="83" t="s">
+      <c r="K3" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" s="79" t="s">
+      <c r="M3" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="79" t="s">
+      <c r="Q3" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="79" t="s">
+      <c r="R3" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="79" t="s">
+      <c r="S3" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="79" t="s">
+      <c r="T3" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="87" t="s">
+      <c r="U3" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="87" t="s">
+      <c r="V3" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="87" t="s">
+      <c r="W3" s="75" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" s="54" t="s">
         <v>5</v>
@@ -4301,19 +4301,18 @@
       <c r="F4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="80"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -4328,23 +4327,22 @@
       <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="80"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>33</v>
@@ -4355,23 +4353,22 @@
       <c r="F6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="80"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>46</v>
@@ -4382,23 +4379,22 @@
       <c r="F7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="80"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
     </row>
     <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>47</v>
@@ -4409,19 +4405,18 @@
       <c r="F8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="81"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="14" t="s">
@@ -4486,10 +4481,10 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="74"/>
+      <c r="B10" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="85"/>
       <c r="E10" s="14" t="s">
         <v>37</v>
       </c>
@@ -4528,22 +4523,22 @@
       <c r="F11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
+      <c r="H11" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="36" t="s">
@@ -4558,7 +4553,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>39</v>
@@ -4566,20 +4561,20 @@
       <c r="F12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
       <c r="X12" s="36" t="s">
@@ -4600,22 +4595,22 @@
         <v>40</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
+        <v>85</v>
+      </c>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
       <c r="X13" s="36" t="s">
@@ -4632,20 +4627,20 @@
       <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
@@ -4658,24 +4653,24 @@
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="76"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
+      <c r="E15" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="36" t="s">
         <v>21</v>
       </c>
@@ -4702,20 +4697,20 @@
       <c r="F16" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="36" t="s">
         <v>19</v>
       </c>
@@ -4742,20 +4737,20 @@
       <c r="F17" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
       <c r="V17" s="36" t="s">
         <v>8</v>
       </c>
@@ -4848,72 +4843,80 @@
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="M20" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="86" t="s">
+      <c r="Q20" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="Q20" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="T20" s="85" t="s">
+      <c r="T20" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="Y20" s="90" t="s">
+      <c r="Y20" s="71" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="Y21" s="88"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="Y21" s="72"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="Y22" s="88"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="Y22" s="72"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="Y23" s="88"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="Y23" s="72"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="Y24" s="88"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="Y24" s="72"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="Y25" s="88"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="Y25" s="72"/>
     </row>
     <row r="33" spans="23:26" x14ac:dyDescent="0.25">
       <c r="W33" s="28"/>
@@ -4923,6 +4926,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H11:U17"/>
+    <mergeCell ref="P20:P25"/>
+    <mergeCell ref="M20:M25"/>
+    <mergeCell ref="T20:T25"/>
+    <mergeCell ref="N20:N25"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="Q20:Q25"/>
+    <mergeCell ref="L20:L25"/>
+    <mergeCell ref="O20:O25"/>
     <mergeCell ref="Y20:Y25"/>
     <mergeCell ref="P3:P8"/>
     <mergeCell ref="Q3:Q8"/>
@@ -4932,22 +4951,6 @@
     <mergeCell ref="V3:V8"/>
     <mergeCell ref="W3:W8"/>
     <mergeCell ref="U3:U8"/>
-    <mergeCell ref="M20:M25"/>
-    <mergeCell ref="T20:T25"/>
-    <mergeCell ref="O20:O25"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="P20:P25"/>
-    <mergeCell ref="Q20:Q25"/>
-    <mergeCell ref="L20:L25"/>
-    <mergeCell ref="N3:N8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H11:U17"/>
-    <mergeCell ref="K3:K8"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.15748031496062992" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -4991,7 +4994,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -5002,13 +5005,13 @@
         <v>69</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C4" s="23">
         <v>84</v>
@@ -5044,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="23">
         <v>17.5</v>
@@ -5072,7 +5075,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="23">
         <v>6.25</v>
@@ -5100,7 +5103,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C9" s="23">
         <v>23.25</v>
@@ -5114,19 +5117,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C10" s="23">
         <v>95</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C11" s="26">
         <f>SUM(C3:C10)</f>
